--- a/CSVValidator/badania/testy statystyczne/wyniki statystyczne.xlsx
+++ b/CSVValidator/badania/testy statystyczne/wyniki statystyczne.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Średnie z programu" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Średnie z narzędzia Profiler" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Arkusz3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t xml:space="preserve">Algorytm</t>
   </si>
@@ -91,6 +92,36 @@
   <si>
     <t xml:space="preserve">Średnia czasu wczyt. z walid. po wczyt. [ms]</t>
   </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightToMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightToMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pamięćć</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +179,21 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -236,92 +282,100 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -482,12 +536,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -607,12 +665,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -732,12 +794,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -857,12 +923,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -982,12 +1052,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1066,11 +1140,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36017828"/>
-        <c:axId val="26544348"/>
+        <c:axId val="98234415"/>
+        <c:axId val="75699604"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36017828"/>
+        <c:axId val="98234415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -1139,12 +1213,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26544348"/>
+        <c:crossAx val="75699604"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26544348"/>
+        <c:axId val="75699604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1294,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36017828"/>
+        <c:crossAx val="98234415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,12 +1432,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1483,12 +1561,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1608,12 +1690,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1733,12 +1819,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1858,12 +1948,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1942,11 +2036,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25379936"/>
-        <c:axId val="27758377"/>
+        <c:axId val="73289783"/>
+        <c:axId val="84498607"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25379936"/>
+        <c:axId val="73289783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -2015,12 +2109,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27758377"/>
+        <c:crossAx val="84498607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27758377"/>
+        <c:axId val="84498607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25379936"/>
+        <c:crossAx val="73289783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2234,12 +2328,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2359,12 +2457,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2484,12 +2586,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2609,12 +2715,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2734,12 +2844,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2818,11 +2932,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22205441"/>
-        <c:axId val="80451479"/>
+        <c:axId val="58865174"/>
+        <c:axId val="55364494"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22205441"/>
+        <c:axId val="58865174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -2891,12 +3005,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80451479"/>
+        <c:crossAx val="55364494"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80451479"/>
+        <c:axId val="55364494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +3086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22205441"/>
+        <c:crossAx val="58865174"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3110,12 +3224,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3235,12 +3353,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3360,12 +3482,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3485,12 +3611,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3610,12 +3740,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3694,11 +3828,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65381561"/>
-        <c:axId val="71277874"/>
+        <c:axId val="21940451"/>
+        <c:axId val="49986445"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65381561"/>
+        <c:axId val="21940451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -3767,12 +3901,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71277874"/>
+        <c:crossAx val="49986445"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71277874"/>
+        <c:axId val="49986445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3982,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65381561"/>
+        <c:crossAx val="21940451"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3986,12 +4120,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4111,12 +4249,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4236,12 +4378,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4361,12 +4507,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4486,12 +4636,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4570,11 +4724,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87355193"/>
-        <c:axId val="56888401"/>
+        <c:axId val="46024999"/>
+        <c:axId val="9913882"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87355193"/>
+        <c:axId val="46024999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -4643,12 +4797,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56888401"/>
+        <c:crossAx val="9913882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56888401"/>
+        <c:axId val="9913882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,7 +4878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87355193"/>
+        <c:crossAx val="46024999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4862,12 +5016,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4987,12 +5145,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5071,11 +5233,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34581898"/>
-        <c:axId val="16619071"/>
+        <c:axId val="17140927"/>
+        <c:axId val="52998501"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34581898"/>
+        <c:axId val="17140927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -5144,12 +5306,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16619071"/>
+        <c:crossAx val="52998501"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16619071"/>
+        <c:axId val="52998501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34581898"/>
+        <c:crossAx val="17140927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5276,6 +5438,1431 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Wykres pudełkowy dla czasu przetwarzania</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$L$2,Arkusz3!$L$7,Arkusz3!$L$12,Arkusz3!$L$17,Arkusz3!$L$22,Arkusz3!$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mediana</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="ff0000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$J$2,Arkusz3!$J$7,Arkusz3!$J$12,Arkusz3!$J$17,Arkusz3!$J$22,Arkusz3!$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$N$2,Arkusz3!$M$7,Arkusz3!$M$12,Arkusz3!$M$17,Arkusz3!$M$22,Arkusz3!$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$O$2,Arkusz3!$O$7,Arkusz3!$O$12,Arkusz3!$O$17,Arkusz3!$O$22,Arkusz3!$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="8305975"/>
+        <c:axId val="34912729"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="8305975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Rozmiar pliku [MB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34912729"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34912729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8305975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Wykres pudełkowy czasu walidacji algorytmów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f/>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="0"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz3!$E$2,Arkusz3!$E$7,Arkusz3!$E$12,Arkusz3!$E$17,Arkusz3!$E$22,Arkusz3!$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.068044103344816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.118406080924925</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0683373982530793</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.236579796263333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.439579344373686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.10598433042604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$L$2,Arkusz3!$L$7,Arkusz3!$L$12,Arkusz3!$L$17,Arkusz3!$L$22,Arkusz3!$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$M$2,Arkusz3!$M$7,Arkusz3!$M$12,Arkusz3!$M$17,Arkusz3!$M$22,Arkusz3!$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz3!$E$2,Arkusz3!$E$7,Arkusz3!$E$12,Arkusz3!$E$17,Arkusz3!$E$22,Arkusz3!$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.068044103344816</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.118406080924925</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0683373982530793</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.236579796263333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.439579344373686</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.10598433042604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f/>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="0"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$N$2,Arkusz3!$N$7,Arkusz3!$N$12,Arkusz3!$N$17,Arkusz3!$N$22,Arkusz3!$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.920000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Arkusz3!$B$2,Arkusz3!$B$7,Arkusz3!$B$12,Arkusz3!$B$17,Arkusz3!$B$22,Arkusz3!$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>250</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$O$2,Arkusz3!$O$7,Arkusz3!$O$12,Arkusz3!$O$17,Arkusz3!$O$22,Arkusz3!$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="53858080"/>
+        <c:axId val="78764070"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53858080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Rozmiar pliku [MB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78764070"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78764070"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53858080"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5373,12 +6960,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5492,12 +7083,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5611,12 +7206,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5730,12 +7329,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5849,12 +7452,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5927,11 +7534,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50029612"/>
-        <c:axId val="58627496"/>
+        <c:axId val="63446079"/>
+        <c:axId val="79884147"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50029612"/>
+        <c:axId val="63446079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -6000,12 +7607,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58627496"/>
+        <c:crossAx val="79884147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58627496"/>
+        <c:axId val="79884147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,7 +7688,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50029612"/>
+        <c:crossAx val="63446079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6183,7 +7790,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Średnie z programu'!$A$2</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6219,12 +7826,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6249,7 +7860,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$b$2;$'Średnie z programu'.$B$7;$'Średnie z programu'.$B$12;$'Średnie z programu'.$B$17;$'Średnie z programu'.$B$22;$'Średnie z programu'.$B$27;"</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6273,7 +7884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$e$2;$'Średnie z programu'.$E$7;$'Średnie z programu'.$E$12;$'Średnie z programu'.$E$17;$'Średnie z programu'.$E$22;$'Średnie z programu'.$E$27;"</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6302,7 +7913,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Średnie z programu'!$A$3</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6338,12 +7949,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6368,7 +7983,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$b$3;$'Średnie z programu'.$B$8;$'Średnie z programu'.$B$13;$'Średnie z programu'.$B$18;$'Średnie z programu'.$B$23;$'Średnie z programu'.$B$28;"</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6392,7 +8007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$e$3;$'Średnie z programu'.$E$8;$'Średnie z programu'.$E$13;$'Średnie z programu'.$E$18;$'Średnie z programu'.$E$23;$'Średnie z programu'.$E$28;"</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6421,7 +8036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Średnie z programu'!$A$4</c:f>
+              <c:f>label 4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6457,12 +8072,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6487,7 +8106,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$b$4;$'Średnie z programu'.$B$9;$'Średnie z programu'.$B$14;$'Średnie z programu'.$B$19;$'Średnie z programu'.$B$24;$'Średnie z programu'.$B$29;"</c:f>
+              <c:f>5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6511,7 +8130,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$e$4;$'Średnie z programu'.$E$9;$'Średnie z programu'.$E$14;$'Średnie z programu'.$E$19;$'Średnie z programu'.$E$24;$'Średnie z programu'.$E$29;"</c:f>
+              <c:f>4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6540,7 +8159,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Średnie z programu'!$A$5</c:f>
+              <c:f>label 6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6576,12 +8195,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6606,7 +8229,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$b$5;$'Średnie z programu'.$B$10;$'Średnie z programu'.$B$15;$'Średnie z programu'.$B$20;$'Średnie z programu'.$B$25;$'Średnie z programu'.$B$30;"</c:f>
+              <c:f>7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6630,7 +8253,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$e$5;$'Średnie z programu'.$E$10;$'Średnie z programu'.$E$15;$'Średnie z programu'.$E$20;$'Średnie z programu'.$E$25;$'Średnie z programu'.$E$30;"</c:f>
+              <c:f>6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6659,7 +8282,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Średnie z programu'!$A$6</c:f>
+              <c:f>label 8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6695,12 +8318,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6725,7 +8352,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$b$6;$'Średnie z programu'.$B$11;$'Średnie z programu'.$B$16;$'Średnie z programu'.$B$21;$'Średnie z programu'.$B$26;$'Średnie z programu'.$B$31;"</c:f>
+              <c:f>9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6749,7 +8376,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>"$'średnie z programu'.$e$6;$'Średnie z programu'.$E$11;$'Średnie z programu'.$E$16;$'Średnie z programu'.$E$21;$'Średnie z programu'.$E$26;$'Średnie z programu'.$E$31;"</c:f>
+              <c:f>8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6773,11 +8400,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13394279"/>
-        <c:axId val="5314056"/>
+        <c:axId val="91184128"/>
+        <c:axId val="25819856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13394279"/>
+        <c:axId val="91184128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -6846,12 +8473,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5314056"/>
+        <c:crossAx val="25819856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5314056"/>
+        <c:axId val="25819856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6927,7 +8554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13394279"/>
+        <c:crossAx val="91184128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7065,12 +8692,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7190,12 +8821,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7274,11 +8909,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26197303"/>
-        <c:axId val="92116046"/>
+        <c:axId val="15163056"/>
+        <c:axId val="21060018"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26197303"/>
+        <c:axId val="15163056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -7347,12 +8982,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92116046"/>
+        <c:crossAx val="21060018"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92116046"/>
+        <c:axId val="21060018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7428,7 +9063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26197303"/>
+        <c:crossAx val="15163056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7566,12 +9201,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7691,12 +9330,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7816,12 +9459,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7941,12 +9588,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8066,12 +9717,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8150,11 +9805,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70673156"/>
-        <c:axId val="83183207"/>
+        <c:axId val="57947585"/>
+        <c:axId val="52281749"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70673156"/>
+        <c:axId val="57947585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -8223,12 +9878,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83183207"/>
+        <c:crossAx val="52281749"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83183207"/>
+        <c:axId val="52281749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8304,7 +9959,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70673156"/>
+        <c:crossAx val="57947585"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8442,12 +10097,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8567,12 +10226,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8692,12 +10355,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8817,12 +10484,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8942,12 +10613,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9026,11 +10701,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21442145"/>
-        <c:axId val="85694966"/>
+        <c:axId val="66271215"/>
+        <c:axId val="71926290"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21442145"/>
+        <c:axId val="66271215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -9099,12 +10774,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85694966"/>
+        <c:crossAx val="71926290"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85694966"/>
+        <c:axId val="71926290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9180,7 +10855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21442145"/>
+        <c:crossAx val="66271215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9318,12 +10993,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9443,12 +11122,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9568,12 +11251,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9693,12 +11380,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9818,12 +11509,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9902,11 +11597,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85249335"/>
-        <c:axId val="20949429"/>
+        <c:axId val="37170930"/>
+        <c:axId val="8600295"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85249335"/>
+        <c:axId val="37170930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -9975,12 +11670,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20949429"/>
+        <c:crossAx val="8600295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20949429"/>
+        <c:axId val="8600295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10056,7 +11751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85249335"/>
+        <c:crossAx val="37170930"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10194,12 +11889,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10319,12 +12018,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10444,12 +12147,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10569,12 +12276,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10694,12 +12405,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10778,11 +12493,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32689285"/>
-        <c:axId val="51803502"/>
+        <c:axId val="42037517"/>
+        <c:axId val="64602744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32689285"/>
+        <c:axId val="42037517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -10851,12 +12566,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51803502"/>
+        <c:crossAx val="64602744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51803502"/>
+        <c:axId val="64602744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10932,7 +12647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32689285"/>
+        <c:crossAx val="42037517"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11070,12 +12785,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11195,12 +12914,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11320,12 +13043,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11445,12 +13172,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11570,12 +13301,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11654,11 +13389,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91912994"/>
-        <c:axId val="23176110"/>
+        <c:axId val="3019307"/>
+        <c:axId val="79859639"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91912994"/>
+        <c:axId val="3019307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4020"/>
@@ -11727,12 +13462,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23176110"/>
+        <c:crossAx val="79859639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23176110"/>
+        <c:axId val="79859639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11808,7 +13543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91912994"/>
+        <c:crossAx val="3019307"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11872,9 +13607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11883,7 +13618,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1082160" y="6310080"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11902,9 +13637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11913,7 +13648,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10755000" y="6303240"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11932,9 +13667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11943,7 +13678,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1076400" y="11612520"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11962,9 +13697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>223920</xdr:colOff>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11973,7 +13708,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14260680" y="380880"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11992,9 +13727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>356400</xdr:colOff>
+      <xdr:colOff>356040</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12003,7 +13738,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10781280" y="11628000"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12027,9 +13762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
+      <xdr:colOff>380520</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12038,7 +13773,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1076040" y="5958720"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12057,9 +13792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12068,7 +13803,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1094040" y="16672680"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12087,9 +13822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>420480</xdr:colOff>
+      <xdr:colOff>420120</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12098,7 +13833,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1115640" y="11232000"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12117,9 +13852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:colOff>383760</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12128,7 +13863,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1079280" y="22105800"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12147,9 +13882,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
+      <xdr:colOff>22680</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12158,7 +13893,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10773000" y="11216160"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12177,9 +13912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12188,7 +13923,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10778040" y="22090320"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12207,9 +13942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12218,7 +13953,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10768680" y="5974560"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12237,9 +13972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
+      <xdr:colOff>23040</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12248,7 +13983,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10773360" y="16649640"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12267,9 +14002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12278,11 +14013,76 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="29088000" y="525600"/>
-        <a:ext cx="8641800" cy="4860000"/>
+        <a:ext cx="8641440" cy="4859640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>75960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12197880" y="203760"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5699160" y="6021360"/>
+        <a:ext cx="6506280" cy="3659760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12471,1105 +14271,1105 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="20.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>1.2132</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.0146</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>1364.893</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <v>249.5654</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="7" t="n">
         <v>1.2909</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="7" t="n">
         <v>0.0404</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>1776.0822</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="7" t="n">
         <v>71.7552</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="9" t="n">
         <f aca="false">AVERAGEA(C2:C6)</f>
         <v>1.36744</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L2" s="10" t="n">
         <f aca="false">AVERAGEA(G2:G6)</f>
         <v>1.57104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>1.5446</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.0406</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>1271.412</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>191.6596</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="7" t="n">
         <v>2.0854</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.0241</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>1678.1428</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="7" t="n">
         <v>304.6989</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>1.2555</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.0317</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>1343.611</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>213.0927</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>1.4785</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.0521</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>1658.362</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="7" t="n">
         <v>124.5109</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>1.2397</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.0229</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>1296.804</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>234.5462</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>1.3322</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.0683</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>1739.1028</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="7" t="n">
         <v>99.1034</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>1.5842</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>0.0202</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>1877.235</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="15" t="n">
         <v>345.904</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>1.6682</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="14" t="n">
         <v>0.0648</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>1786.082</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="14" t="n">
         <v>131.9593</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>3.3884</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.0642</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>1567.90049</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>387.024</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>3.545</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.0777</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>1776.08221</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="7" t="n">
         <v>71.7552</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="9" t="n">
         <f aca="false">AVERAGEA(C7:C11)</f>
         <v>3.7247</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="10" t="n">
         <f aca="false">AVERAGEA(G7:G11)</f>
         <v>4.18496</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>4.1175</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.0613</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>1893.38138</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>283.1066</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="7" t="n">
         <v>5.4413</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="7" t="n">
         <v>0.0654</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>2272.85301</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="7" t="n">
         <v>490.9617</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>3.3853</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>0.0708</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>1778.80385</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>286.3041</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>3.9592</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>0.0718</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>2251.01161</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="7" t="n">
         <v>255.9982</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>3.3662</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>0.0423</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>1784.59402</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>489.9603</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>3.5696</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>0.0919</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>1920.94335</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="7" t="n">
         <v>281.7442</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="17" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>4.3661</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>0.0553</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="14" t="n">
         <v>2268.518</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="15" t="n">
         <v>148.0305</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="14" t="n">
         <v>4.4097</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="14" t="n">
         <v>0.0694</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="14" t="n">
         <v>2280.80127</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="14" t="n">
         <v>377.1771</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>7.0428</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>0.0873</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>2824.43984</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <v>433.271</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="7" t="n">
         <v>7.599</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="7" t="n">
         <v>0.1467</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>3296.16666</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="7" t="n">
         <v>430.4864</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="9" t="n">
         <f aca="false">AVERAGEA(C12:C16)</f>
         <v>7.75952</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="10" t="n">
         <f aca="false">AVERAGEA(G12:G16)</f>
         <v>8.89254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>8.5686</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>0.1038</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>2779.14387</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="8" t="n">
         <v>387.7206</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="7" t="n">
         <v>11.348</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="7" t="n">
         <v>0.1369</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <v>3186.25629</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="7" t="n">
         <v>342.1227</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>7.1591</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>0.1264</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>2859.47089</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="8" t="n">
         <v>431.0696</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="7" t="n">
         <v>8.55</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="7" t="n">
         <v>0.178</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="7" t="n">
         <v>3254.54882</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="7" t="n">
         <v>371.6528</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="16" t="n">
         <v>500</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>7.1334</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>0.0913</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>3184.94332</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <v>161.3151</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>7.6366</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>0.1617</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>3332.43019</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>503.7702</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <v>500</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <v>8.8937</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <v>0.0778</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <v>2908.31761</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="15" t="n">
         <v>547.9612</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="14" t="n">
         <v>9.3291</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="14" t="n">
         <v>0.0815</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="14" t="n">
         <v>3287.5117</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="14" t="n">
         <v>347.5628</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>15.1795</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0.27</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>4814.10585</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <v>409.5102</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>16.2573</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="7" t="n">
         <v>0.3214</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>5984.32636</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="7" t="n">
         <v>595.8156</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="9" t="n">
         <f aca="false">AVERAGEA(C17:C21)</f>
         <v>16.68494</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="10" t="n">
         <f aca="false">AVERAGEA(G17:G21)</f>
         <v>18.9555</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>18.3282</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>0.3106</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>4814.23709</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>316.6532</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="7" t="n">
         <v>23.9469</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="7" t="n">
         <v>0.2946</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <v>5622.13492</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="7" t="n">
         <v>781.8124</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>15.5235</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>0.2279</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>4870.06617</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>400.8001</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>18.262</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="7" t="n">
         <v>0.277</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="7" t="n">
         <v>5678.65136</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="7" t="n">
         <v>783.8375</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>15.3611</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>0.3649</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>4817.92392</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>388.6173</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <v>16.4325</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="7" t="n">
         <v>0.3226</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <v>6083.24342</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="7" t="n">
         <v>349.2771</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>1000</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="14" t="n">
         <v>19.0324</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="14" t="n">
         <v>0.2864</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="14" t="n">
         <v>6134.54348</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="15" t="n">
         <v>332.2017</v>
       </c>
-      <c r="G21" s="13" t="n">
+      <c r="G21" s="14" t="n">
         <v>19.8788</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="14" t="n">
         <v>0.1545</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="14" t="n">
         <v>5576.36809</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="14" t="n">
         <v>569.0702</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>33.5323</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>0.6541</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <v>9150.79205</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="8" t="n">
         <v>555.7822</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>34.6697</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="7" t="n">
         <v>0.2876</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>10276.3417</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>864.3248</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="9" t="n">
         <f aca="false">AVERAGEA(C22:C26)</f>
         <v>36.32194</v>
       </c>
-      <c r="L22" s="9" t="n">
+      <c r="L22" s="10" t="n">
         <f aca="false">AVERAGEA(G22:G26)</f>
         <v>39.97652</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <v>39.9556</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>0.7643</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="7" t="n">
         <v>8873.2052</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="8" t="n">
         <v>340.5675</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="7" t="n">
         <v>50.3638</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="7" t="n">
         <v>0.6215</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <v>10510.7663</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="7" t="n">
         <v>702.2045</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>33.9831</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>0.9153</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <v>8986.4926</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="8" t="n">
         <v>252.829</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="7" t="n">
         <v>38.2761</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="7" t="n">
         <v>0.5834</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="7" t="n">
         <v>10279.9343</v>
       </c>
-      <c r="J24" s="6" t="n">
+      <c r="J24" s="7" t="n">
         <v>502.4219</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>33.4886</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>0.9459</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="7" t="n">
         <v>9104.6355</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="8" t="n">
         <v>414.4406</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="7" t="n">
         <v>34.9119</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="7" t="n">
         <v>0.3145</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <v>10366.5286</v>
       </c>
-      <c r="J25" s="6" t="n">
+      <c r="J25" s="7" t="n">
         <v>707.223</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="17" t="n">
         <v>2000</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="14" t="n">
         <v>40.6501</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="14" t="n">
         <v>0.4455</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="14" t="n">
         <v>9126.6364</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="15" t="n">
         <v>580.6748</v>
       </c>
-      <c r="G26" s="13" t="n">
+      <c r="G26" s="14" t="n">
         <v>41.6611</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="14" t="n">
         <v>0.4038</v>
       </c>
-      <c r="I26" s="13" t="n">
+      <c r="I26" s="14" t="n">
         <v>10082.1954</v>
       </c>
-      <c r="J26" s="13" t="n">
+      <c r="J26" s="14" t="n">
         <v>432.8968</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>71.2149</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>0.9146</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="7" t="n">
         <v>16522.8887</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="8" t="n">
         <v>149.7614</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="7" t="n">
         <v>82.0478</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="7" t="n">
         <v>1.0226</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <v>16255.7578</v>
       </c>
-      <c r="J27" s="6" t="n">
+      <c r="J27" s="7" t="n">
         <v>351.9986</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="9" t="n">
         <f aca="false">AVERAGEA(C27:C31)</f>
         <v>77.80038</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="L27" s="10" t="n">
         <f aca="false">AVERAGEA(G27:G31)</f>
         <v>92.747528</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>85.3368</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>1.9552</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>16573.2997</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="8" t="n">
         <v>220.8436</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="7" t="n">
         <v>113.3892</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="7" t="n">
         <v>1.393</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="7" t="n">
         <v>16269.3161</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="7" t="n">
         <v>476.81</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>73.6195</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>1.8676</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>16410.0906</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="F29" s="8" t="n">
         <v>140.4358</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>89.0679</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="7" t="n">
         <v>1.862</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>16276.4945</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="7" t="n">
         <v>369.826</v>
       </c>
-      <c r="K29" s="17"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>72.1217</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>1.2817</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>16355.6488</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="8" t="n">
         <v>79.58</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="7" t="n">
         <v>82.37724</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="7" t="n">
         <v>1.6762</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="7" t="n">
         <v>16296.4255</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="7" t="n">
         <v>388.3306</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="7" t="n">
         <v>86.709</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>0.8807</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>16495.5791</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="8" t="n">
         <v>180.3795</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="7" t="n">
         <v>96.8555</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="7" t="n">
         <v>1.8375</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="7" t="n">
         <v>16530.397</v>
       </c>
-      <c r="J31" s="6" t="n">
+      <c r="J31" s="7" t="n">
         <v>158.6798</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13590,1854 +15390,1854 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="3" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="3" style="1" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="15.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>1.457</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.041</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>1.013</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.158</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.444</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="7" t="n">
         <v>0.151</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>1.773</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <v>1.568</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>1.028</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="7" t="n">
         <v>0.013</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>0.54</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>0.074</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
         <v>1.813</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S2" s="20" t="n">
+      <c r="S2" s="21" t="n">
         <f aca="false">AVERAGE(G2:G6)</f>
         <v>0.6048</v>
       </c>
-      <c r="T2" s="20" t="n">
+      <c r="T2" s="21" t="n">
         <f aca="false">AVERAGE(O2:O6)</f>
         <v>0.7532</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>1.821</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.103</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>1.121</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>0.132</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>1.68</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="7" t="n">
         <v>2.116</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>0.066</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <v>0.929</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="7" t="n">
         <v>0.033</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>1.22</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="7" t="n">
         <v>2.853</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="6"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>1.643</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.042</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>1.034</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.081</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>0.609</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.087</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>1.68</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="7" t="n">
         <v>1.71</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>0.066</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <v>1.054</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="7" t="n">
         <v>0.022</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>0.655</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="7" t="n">
         <v>0.058</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
         <v>1.887</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="6"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>1.543</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.089</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>1.068</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>0.041</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>0.475</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.081</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>1.757</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>0.012</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <v>1.581</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>1.116</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>0.048</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>0.465</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>0.078</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>1.807</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="6"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>1.744</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>0.049</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>0.948</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="14" t="n">
         <v>0.043</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>0.796</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="14" t="n">
         <v>0.09</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>2.257</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="15" t="n">
         <v>0.006</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="14" t="n">
         <v>1.924</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="14" t="n">
         <v>0.051</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="14" t="n">
         <v>1.038</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="14" t="n">
         <v>0.047</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="14" t="n">
         <v>0.886</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="14" t="n">
         <v>0.034</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="14" t="n">
         <v>2.323</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="14" t="n">
         <v>0.065</v>
       </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="13"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>3.404</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.065</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>2.391</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.057</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>1.014</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.021</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>4.377</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <v>3.374</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <v>0.07</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>2.183</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="7" t="n">
         <v>0.032</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>1.19</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="7" t="n">
         <v>0.063</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
         <v>4.503</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S7" s="20" t="n">
+      <c r="S7" s="21" t="n">
         <f aca="false">AVERAGE(G7:G11)</f>
         <v>1.3816</v>
       </c>
-      <c r="T7" s="20" t="n">
+      <c r="T7" s="21" t="n">
         <f aca="false">AVERAGE(O7:O11)</f>
         <v>1.6754</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>4.074</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.031</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>2.288</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="7" t="n">
         <v>1.786</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="7" t="n">
         <v>0.045</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>4.157</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <v>5.344</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="7" t="n">
         <v>0.086</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="7" t="n">
         <v>2.366</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="7" t="n">
         <v>0.096</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>2.978</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="7" t="n">
         <v>0.132</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="7" t="n">
         <v>7.103</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="6"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>3.585</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>0.029</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>2.337</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>1.248</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>0.065</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>4.13</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="7" t="n">
         <v>3.68</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>2.278</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>0.014</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>1.248</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>0.065</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.717</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="6"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>3.299</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>0.021</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>2.292</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>0.113</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>1.006</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>0.114</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>4.38</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="7" t="n">
         <v>3.453</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="7" t="n">
         <v>2.361</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="7" t="n">
         <v>0.144</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>1.082</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="7" t="n">
         <v>0.197</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="7" t="n">
         <v>4.46</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="7" t="n">
         <v>0.069</v>
       </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="6"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>4.286</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>0.041</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="14" t="n">
         <v>2.432</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="14" t="n">
         <v>0.005</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="14" t="n">
         <v>1.854</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="14" t="n">
         <v>0.041</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="14" t="n">
         <v>5.583</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="15" t="n">
         <v>0.006</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="14" t="n">
         <v>4.38</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="14" t="n">
         <v>0.097</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="14" t="n">
         <v>2.501</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="14" t="n">
         <v>0.021</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="14" t="n">
         <v>1.879</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="14" t="n">
         <v>0.081</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="14" t="n">
         <v>5.833</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="14" t="n">
         <v>0.107</v>
       </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="13"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>6.565</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>0.027</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>4.812</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="7" t="n">
         <v>0.066</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="7" t="n">
         <v>1.752</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>8.75</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="7" t="n">
         <v>6.741</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <v>0.073</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <v>4.689</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="7" t="n">
         <v>0.193</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>2.052</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="7" t="n">
         <v>0.152</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <v>8.957</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S12" s="20" t="n">
+      <c r="S12" s="21" t="n">
         <f aca="false">AVERAGE(G12:G16)</f>
         <v>2.7908</v>
       </c>
-      <c r="T12" s="20" t="n">
+      <c r="T12" s="21" t="n">
         <f aca="false">AVERAGE(O12:O16)</f>
         <v>3.297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>8.201</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>4.571</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>0.131</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="7" t="n">
         <v>3.63</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="7" t="n">
         <v>0.117</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <v>8.297</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="7" t="n">
         <v>10.54</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="7" t="n">
         <v>0.151</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <v>4.778</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="7" t="n">
         <v>0.141</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>5.762</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="7" t="n">
         <v>0.147</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
         <v>14.17</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="S13" s="20"/>
-      <c r="T13" s="6"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="7" t="n">
         <v>7.657</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>0.46</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>4.809</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="7" t="n">
         <v>0.163</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="7" t="n">
         <v>2.848</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="7" t="n">
         <v>0.311</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="7" t="n">
         <v>8.24</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="7" t="n">
         <v>7.579</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="7" t="n">
         <v>0.069</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>4.808</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="7" t="n">
         <v>0.218</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>2.772</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="7" t="n">
         <v>0.256</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="7" t="n">
         <v>9.383</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="6"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>6.677</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>0.127</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>4.694</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>0.104</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>1.984</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>0.225</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>8.75</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>6.782</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <v>0.171</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>4.65</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="7" t="n">
         <v>0.145</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>2.132</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="7" t="n">
         <v>0.191</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
         <v>8.957</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="7" t="n">
         <v>0.012</v>
       </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="6"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="13" t="n">
         <v>500</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <v>8.416</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <v>0.092</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <v>4.675</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="14" t="n">
         <v>0.062</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="14" t="n">
         <v>3.74</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="14" t="n">
         <v>0.052</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="14" t="n">
         <v>11.14</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="14" t="n">
         <v>8.542</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="14" t="n">
         <v>0.267</v>
       </c>
-      <c r="M16" s="13" t="n">
+      <c r="M16" s="14" t="n">
         <v>4.775</v>
       </c>
-      <c r="N16" s="13" t="n">
+      <c r="N16" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="O16" s="13" t="n">
+      <c r="O16" s="14" t="n">
         <v>3.767</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="14" t="n">
         <v>0.077</v>
       </c>
-      <c r="Q16" s="13" t="n">
+      <c r="Q16" s="14" t="n">
         <v>11.5</v>
       </c>
-      <c r="R16" s="13" t="n">
+      <c r="R16" s="14" t="n">
         <v>0.225</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="13"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>13.448</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0.451</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>9.981</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>0.508</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>3.467</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="7" t="n">
         <v>0.058</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>17.49</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>14.444</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="7" t="n">
         <v>0.195</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <v>10.175</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="7" t="n">
         <v>0.286</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>4.269</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="7" t="n">
         <v>0.246</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
         <v>17.913</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="7" t="n">
         <v>0.023</v>
       </c>
-      <c r="S17" s="20" t="n">
+      <c r="S17" s="21" t="n">
         <f aca="false">AVERAGE(G17:G21)</f>
         <v>5.257</v>
       </c>
-      <c r="T17" s="20" t="n">
+      <c r="T17" s="21" t="n">
         <f aca="false">AVERAGE(O17:O21)</f>
         <v>6.7062</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>17.07</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>0.37</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>9.916</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>0.359</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="7" t="n">
         <v>7.154</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="7" t="n">
         <v>0.011</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <v>16.58</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="7" t="n">
         <v>21.552</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="7" t="n">
         <v>0.312</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <v>10.006</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="7" t="n">
         <v>0.091</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>11.546</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="7" t="n">
         <v>0.223</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="7" t="n">
         <v>28.34</v>
       </c>
-      <c r="R18" s="6" t="n">
+      <c r="R18" s="7" t="n">
         <v>0.026</v>
       </c>
-      <c r="S18" s="20"/>
-      <c r="T18" s="6"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>14.806</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>0.337</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>10.188</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>0.377</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>4.618</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="7" t="n">
         <v>0.132</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="7" t="n">
         <v>16.477</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>0.023</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="7" t="n">
         <v>16.278</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="7" t="n">
         <v>0.344</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="7" t="n">
         <v>10.203</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>6.076</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="7" t="n">
         <v>0.477</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="7" t="n">
         <v>18.743</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="7" t="n">
         <v>0.021</v>
       </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="6"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>13.789</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>0.441</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>9.833</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="7" t="n">
         <v>0.205</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <v>3.956</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="7" t="n">
         <v>0.369</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <v>17.463</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>0.023</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="7" t="n">
         <v>14.336</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="7" t="n">
         <v>0.265</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <v>10.119</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="7" t="n">
         <v>0.319</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>4.217</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="7" t="n">
         <v>0.153</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="7" t="n">
         <v>17.907</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S20" s="20"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>1000</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="14" t="n">
         <v>16.884</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="14" t="n">
         <v>0.314</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="14" t="n">
         <v>9.794</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="14" t="n">
         <v>0.408</v>
       </c>
-      <c r="G21" s="13" t="n">
+      <c r="G21" s="14" t="n">
         <v>7.09</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="14" t="n">
         <v>0.122</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="14" t="n">
         <v>22.277</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="15" t="n">
         <v>0.029</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="14" t="n">
         <v>18.053</v>
       </c>
-      <c r="L21" s="13" t="n">
+      <c r="L21" s="14" t="n">
         <v>0.199</v>
       </c>
-      <c r="M21" s="13" t="n">
+      <c r="M21" s="14" t="n">
         <v>10.63</v>
       </c>
-      <c r="N21" s="13" t="n">
+      <c r="N21" s="14" t="n">
         <v>0.161</v>
       </c>
-      <c r="O21" s="13" t="n">
+      <c r="O21" s="14" t="n">
         <v>7.423</v>
       </c>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="14" t="n">
         <v>0.121</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="14" t="n">
         <v>22.977</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="14" t="n">
         <v>0.445</v>
       </c>
-      <c r="S21" s="21"/>
-      <c r="T21" s="13"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>29.641</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <v>0.727</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <v>21.842</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>0.634</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="7" t="n">
         <v>7.799</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="7" t="n">
         <v>0.584</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>34.97</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>0.052</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <v>30.904</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.626</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>22.403</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <v>0.409</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>8.6</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <v>0.184</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="Q22" s="7" t="n">
         <v>35.92</v>
       </c>
-      <c r="R22" s="6" t="n">
+      <c r="R22" s="7" t="n">
         <v>0.052</v>
       </c>
-      <c r="S22" s="20" t="n">
+      <c r="S22" s="21" t="n">
         <f aca="false">AVERAGE(G22:G26)</f>
         <v>11.0224</v>
       </c>
-      <c r="T22" s="20" t="n">
+      <c r="T22" s="21" t="n">
         <f aca="false">AVERAGE(O22:O26)</f>
         <v>13.5046</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <v>35.94</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>0.528</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="7" t="n">
         <v>21.311</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="7" t="n">
         <v>0.362</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="7" t="n">
         <v>14.632</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="7" t="n">
         <v>0.397</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <v>33.19</v>
       </c>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="7" t="n">
         <v>46.03</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="7" t="n">
         <v>1.016</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="7" t="n">
         <v>22.954</v>
       </c>
-      <c r="N23" s="6" t="n">
+      <c r="N23" s="7" t="n">
         <v>0.38</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>23.076</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="7" t="n">
         <v>0.637</v>
       </c>
-      <c r="Q23" s="6" t="n">
+      <c r="Q23" s="7" t="n">
         <v>56.687</v>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>32.247</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>1.13</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <v>21.987</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="7" t="n">
         <v>0.67</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="7" t="n">
         <v>10.26</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="7" t="n">
         <v>1.61</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="7" t="n">
         <v>32.917</v>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="7" t="n">
         <v>33.904</v>
       </c>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="7" t="n">
         <v>1.945</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="7" t="n">
         <v>21.948</v>
       </c>
-      <c r="N24" s="6" t="n">
+      <c r="N24" s="7" t="n">
         <v>1.37</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>11.956</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="P24" s="7" t="n">
         <v>0.581</v>
       </c>
-      <c r="Q24" s="6" t="n">
+      <c r="Q24" s="7" t="n">
         <v>37.52</v>
       </c>
-      <c r="R24" s="6" t="n">
+      <c r="R24" s="7" t="n">
         <v>0.052</v>
       </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="6"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="16" t="n">
         <v>2000</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>29.614</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>0.869</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="7" t="n">
         <v>21.657</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="7" t="n">
         <v>0.596</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="7" t="n">
         <v>7.957</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="7" t="n">
         <v>0.277</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <v>34.943</v>
       </c>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="8" t="n">
         <v>0.049</v>
       </c>
-      <c r="K25" s="6" t="n">
+      <c r="K25" s="7" t="n">
         <v>30.523</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="7" t="n">
         <v>1.157</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="7" t="n">
         <v>21.841</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="7" t="n">
         <v>0.968</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>8.682</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="P25" s="7" t="n">
         <v>0.399</v>
       </c>
-      <c r="Q25" s="6" t="n">
+      <c r="Q25" s="7" t="n">
         <v>35.89</v>
       </c>
-      <c r="R25" s="6" t="n">
+      <c r="R25" s="7" t="n">
         <v>0.052</v>
       </c>
-      <c r="S25" s="20"/>
-      <c r="T25" s="6"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="17" t="n">
         <v>2000</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="14" t="n">
         <v>35.792</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="14" t="n">
         <v>0.096</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="14" t="n">
         <v>21.328</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="14" t="n">
         <v>0.41</v>
       </c>
-      <c r="G26" s="13" t="n">
+      <c r="G26" s="14" t="n">
         <v>14.464</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="14" t="n">
         <v>0.346</v>
       </c>
-      <c r="I26" s="13" t="n">
+      <c r="I26" s="14" t="n">
         <v>44.63</v>
       </c>
-      <c r="J26" s="14" t="n">
+      <c r="J26" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="13" t="n">
+      <c r="K26" s="14" t="n">
         <v>37.399</v>
       </c>
-      <c r="L26" s="13" t="n">
+      <c r="L26" s="14" t="n">
         <v>0.648</v>
       </c>
-      <c r="M26" s="13" t="n">
+      <c r="M26" s="14" t="n">
         <v>22.189</v>
       </c>
-      <c r="N26" s="13" t="n">
+      <c r="N26" s="14" t="n">
         <v>0.204</v>
       </c>
-      <c r="O26" s="13" t="n">
+      <c r="O26" s="14" t="n">
         <v>15.209</v>
       </c>
-      <c r="P26" s="13" t="n">
+      <c r="P26" s="14" t="n">
         <v>0.497</v>
       </c>
-      <c r="Q26" s="13" t="n">
+      <c r="Q26" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="R26" s="13" t="n">
+      <c r="R26" s="14" t="n">
         <v>0.883</v>
       </c>
-      <c r="S26" s="21"/>
-      <c r="T26" s="13"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>65.92</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>3.051</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="7" t="n">
         <v>49.94</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>3.183</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="7" t="n">
         <v>15.979</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="7" t="n">
         <v>0.513</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <v>69.733</v>
       </c>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="8" t="n">
         <v>0.107</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="7" t="n">
         <v>65.907</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="7" t="n">
         <v>0.517</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="7" t="n">
         <v>48.256</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="7" t="n">
         <v>0.71</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>17.652</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="P27" s="7" t="n">
         <v>0.292</v>
       </c>
-      <c r="Q27" s="6" t="n">
+      <c r="Q27" s="7" t="n">
         <v>71.79</v>
       </c>
-      <c r="R27" s="6" t="n">
+      <c r="R27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="20" t="n">
+      <c r="S27" s="21" t="n">
         <f aca="false">AVERAGE(G27:G31)</f>
         <v>21.515</v>
       </c>
-      <c r="T27" s="20" t="n">
+      <c r="T27" s="21" t="n">
         <f aca="false">AVERAGE(O27:O31)</f>
         <v>27.8994</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>77.906</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>0.511</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>48.29</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>0.485</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="7" t="n">
         <v>29.616</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="7" t="n">
         <v>0.209</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="7" t="n">
         <v>66.18</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="7" t="n">
         <v>96.317</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="7" t="n">
         <v>0.285</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <v>48.357</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="7" t="n">
         <v>0.665</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>47.96</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="7" t="n">
         <v>0.754</v>
       </c>
-      <c r="Q28" s="6" t="n">
+      <c r="Q28" s="7" t="n">
         <v>113.433</v>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="7" t="n">
         <v>0.006</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="6"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>67.248</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>1.117</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>47.369</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>0.826</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>19.879</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="7" t="n">
         <v>0.486</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>65.803</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="8" t="n">
         <v>0.006</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="7" t="n">
         <v>72.905</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="7" t="n">
         <v>0.613</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="7" t="n">
         <v>47.976</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="7" t="n">
         <v>0.485</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>24.929</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="7" t="n">
         <v>0.153</v>
       </c>
-      <c r="Q29" s="6" t="n">
+      <c r="Q29" s="7" t="n">
         <v>74.937</v>
       </c>
-      <c r="R29" s="6" t="n">
+      <c r="R29" s="7" t="n">
         <v>0.133</v>
       </c>
-      <c r="S29" s="20"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>59.653</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>2.489</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>44.606</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="7" t="n">
         <v>1.576</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="7" t="n">
         <v>15.047</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="7" t="n">
         <v>0.959</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="7" t="n">
         <v>69.73</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>0.104</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="7" t="n">
         <v>67.667</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="7" t="n">
         <v>0.646</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="7" t="n">
         <v>49.248</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="7" t="n">
         <v>1.681</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>18.419</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="7" t="n">
         <v>1.141</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="7" t="n">
         <v>71.587</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="7" t="n">
         <v>0.344</v>
       </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="6"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="7" t="n">
         <v>72.719</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>2.273</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>45.681</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>0.705</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="7" t="n">
         <v>27.054</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="7" t="n">
         <v>1.574</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="7" t="n">
         <v>89.05</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="6" t="n">
+      <c r="K31" s="7" t="n">
         <v>78.268</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="7" t="n">
         <v>3.389</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="7" t="n">
         <v>47.7</v>
       </c>
-      <c r="N31" s="6" t="n">
+      <c r="N31" s="7" t="n">
         <v>2.442</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>30.537</v>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="P31" s="7" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q31" s="6" t="n">
+      <c r="Q31" s="7" t="n">
         <v>90.917</v>
       </c>
-      <c r="R31" s="6" t="n">
+      <c r="R31" s="7" t="n">
         <v>0.115</v>
       </c>
-      <c r="S31" s="20"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15449,4 +17249,741 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C2:C6)</f>
+        <v>0.068044103344816</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">MIN(C2:C6)</f>
+        <v>0.93</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">MAX(C2:C6)</f>
+        <v>1.12</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">QUARTILE(C2:C6,1)</f>
+        <v>1.03</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">QUARTILE(C2:C6,2)</f>
+        <v>1.04</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">QUARTILE(C2:C6,3)</f>
+        <v>1.05</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">I2</f>
+        <v>1.03</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">J2-I2</f>
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">K2-J2</f>
+        <v>0.01</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">H2-K2</f>
+        <v>0.0700000000000001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C7:C11)</f>
+        <v>0.118406080924925</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">MIN(C7:C11)</f>
+        <v>2.18</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">MAX(C7:C11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">QUARTILE(C7:C11,1)</f>
+        <v>2.28</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">QUARTILE(C7:C11,2)</f>
+        <v>2.36</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">QUARTILE(C7:C11,3)</f>
+        <v>2.37</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">I7</f>
+        <v>2.28</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">J7-I7</f>
+        <v>0.0800000000000001</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">K7-J7</f>
+        <v>0.0100000000000002</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">H7-K7</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>250</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>250</v>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="n">
+        <v>250</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C12:C16)</f>
+        <v>0.0683373982530793</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">MIN(C12:C16)</f>
+        <v>4.65</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">MAX(C12:C16)</f>
+        <v>4.81</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">QUARTILE(C12:C16,1)</f>
+        <v>4.69</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">QUARTILE(C12:C16,2)</f>
+        <v>4.78</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">QUARTILE(C12:C16,3)</f>
+        <v>4.78</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">I12</f>
+        <v>4.69</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">J12-I12</f>
+        <v>0.0899999999999999</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">K12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">H12-K12</f>
+        <v>0.0299999999999994</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="23" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C17:C21)</f>
+        <v>0.236579796263333</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">MIN(C17:C21)</f>
+        <v>10.01</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">MAX(C17:C21)</f>
+        <v>10.63</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">QUARTILE(C17:C21,1)</f>
+        <v>10.12</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">QUARTILE(C17:C21,2)</f>
+        <v>10.18</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">QUARTILE(C17:C21,3)</f>
+        <v>10.2</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">I17</f>
+        <v>10.12</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">J17-I17</f>
+        <v>0.0600000000000005</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">K17-J17</f>
+        <v>0.0199999999999996</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">H17-K17</f>
+        <v>0.430000000000002</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="D18" s="23" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C22:C26)</f>
+        <v>0.439579344373686</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">MIN(C22:C26)</f>
+        <v>21.84</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">MAX(C22:C26)</f>
+        <v>22.95</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">QUARTILE(C22:C26,1)</f>
+        <v>21.95</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">QUARTILE(C22:C26,2)</f>
+        <v>22.19</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">QUARTILE(C22:C26,3)</f>
+        <v>22.4</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">I22</f>
+        <v>21.95</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">J22-I22</f>
+        <v>0.240000000000002</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">K22-J22</f>
+        <v>0.209999999999997</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">H22-K22</f>
+        <v>0.550000000000001</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="23" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="D25" s="23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D26" s="23" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.S(C27:C31)</f>
+        <v>2.10598433042604</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">MIN(C27:C31)</f>
+        <v>44.61</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">MAX(C27:C31)</f>
+        <v>49.94</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">QUARTILE(C27:C31,1)</f>
+        <v>45.68</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">QUARTILE(C27:C31,2)</f>
+        <v>47.37</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">QUARTILE(C27:C31,3)</f>
+        <v>48.29</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">I27</f>
+        <v>45.68</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">J27-I27</f>
+        <v>1.69</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">K27-J27</f>
+        <v>0.920000000000002</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">H27-K27</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C28" s="23" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="D28" s="23" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C31" s="23" t="n">
+        <v>45.68</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R35" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>